--- a/public/data/non_teaching_junior_staff.xlsx
+++ b/public/data/non_teaching_junior_staff.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="602">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">DEPARTMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junior Staff</t>
   </si>
   <si>
     <t xml:space="preserve">Mr.</t>
@@ -2019,13 +2022,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q168"/>
+  <dimension ref="A1:R168"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D152" activeCellId="0" sqref="D152:D154"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P163" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2:R168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.2"/>
@@ -2094,19 +2097,22 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>27577</v>
@@ -2115,7 +2121,7 @@
         <v>752486</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>244968842</v>
@@ -2124,43 +2130,46 @@
         <v>272360795</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>24744</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>242651892</v>
@@ -2169,132 +2178,144 @@
         <v>312292874</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>28007</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>248119031</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>23038</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>546537785</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>24204</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>208344556</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>31053</v>
@@ -2306,63 +2327,69 @@
         <v>248519372</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>32092</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>248028660</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M8" s="4"/>
       <c r="O8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>24959</v>
@@ -2371,7 +2398,7 @@
         <v>901825</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>245072993</v>
@@ -2380,65 +2407,71 @@
         <v>506560885</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>27203</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>261205795</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>29773</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>207102002</v>
@@ -2447,210 +2480,231 @@
         <v>248056197</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>27230</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>248762137</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>30977</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>29789</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>242373263</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>30150</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>22737</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>29992</v>
@@ -2659,27 +2713,30 @@
         <v>901182</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>30162</v>
@@ -2688,24 +2745,27 @@
         <v>901819</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>27358</v>
@@ -2714,85 +2774,94 @@
         <v>901184</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>542149039</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>25001</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>23775</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>29345</v>
@@ -2801,487 +2870,532 @@
         <v>901809</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>29365</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>25579</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>26372</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>23403</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>22859</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>548543038</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>29091</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>249736020</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>30435</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>204414516</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>27388</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>26550</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>22711</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>541185627</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>25082</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>274201157</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>28175</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>541386586</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O35" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>29253</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>262759618</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>27456</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>278336004</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>23446</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>554705012</v>
@@ -3290,735 +3404,804 @@
         <v>509444593</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q38" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39" s="1" t="n">
         <v>30954</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>27468</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>246394833</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q40" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>27467</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>548149812</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q41" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>24023</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O42" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q42" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>27980</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q43" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>25656</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q44" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>28015</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>205529533</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q45" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>22723</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>275406340</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q46" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>24788</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>265032964</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G48" s="1" t="n">
         <v>27706</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q48" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>29217</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>509688402</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q49" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>22884</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>543990337</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>26307</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q51" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G52" s="1" t="n">
         <v>25128</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>246596616</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O52" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q52" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>28643</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q53" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G54" s="1" t="n">
         <v>25601</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q54" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>29226</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O55" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q55" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G56" s="1" t="n">
         <v>25236</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q56" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G57" s="1" t="n">
         <v>23399</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q57" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G58" s="1" t="n">
         <v>25233</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J58" s="0" t="n">
         <v>240628600</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q58" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G59" s="1" t="n">
         <v>23868</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>578111606</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q59" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G60" s="1" t="n">
         <v>24032</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J60" s="0" t="n">
         <v>540868650</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q60" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G61" s="1" t="n">
         <v>28197</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J61" s="0" t="n">
         <v>276951779</v>
@@ -4027,132 +4210,144 @@
         <v>245519849</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q61" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G62" s="1" t="n">
         <v>25899</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J62" s="0" t="n">
         <v>244434556</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q62" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G63" s="1" t="n">
         <v>24114</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q63" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R63" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G64" s="1" t="n">
         <v>27943</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q64" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R64" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G65" s="1" t="n">
         <v>27166</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J65" s="0" t="n">
         <v>268395565</v>
@@ -4161,508 +4356,556 @@
         <v>544191429</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M65" s="4"/>
       <c r="N65" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q65" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R65" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G66" s="1" t="n">
         <v>28625</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q66" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R66" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G67" s="1" t="n">
         <v>25288</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q67" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R67" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G68" s="1" t="n">
         <v>29307</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R68" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G69" s="1" t="n">
         <v>25695</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J69" s="0" t="n">
         <v>271638683</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R69" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G70" s="1" t="n">
         <v>25940</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>242054878</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q70" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R70" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G71" s="1" t="n">
         <v>26681</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J71" s="0" t="n">
         <v>242361895</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q71" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R71" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G72" s="1" t="n">
         <v>29288</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q72" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R72" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G73" s="1" t="n">
         <v>27305</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J73" s="0" t="n">
         <v>208162704</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O73" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q73" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R73" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G74" s="1" t="n">
         <v>25949</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O74" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q74" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R74" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G75" s="1" t="n">
         <v>30056</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O75" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q75" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R75" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G76" s="1" t="n">
         <v>27534</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J76" s="0" t="n">
         <v>544379397</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q76" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R76" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G77" s="1" t="n">
         <v>31017</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O77" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q77" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R77" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G78" s="1" t="n">
         <v>29267</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q78" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R78" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G79" s="1" t="n">
         <v>26167</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O79" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q79" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R79" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G80" s="1" t="n">
         <v>25343</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J80" s="0" t="n">
         <v>277064590</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O80" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q80" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R80" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G81" s="1" t="n">
         <v>30114</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J81" s="0" t="n">
         <v>204409886</v>
@@ -4671,217 +4914,238 @@
         <v>264409886</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O81" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q81" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R81" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82" s="1" t="n">
         <v>28018</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J82" s="0" t="n">
         <v>273468687</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O82" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q82" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R82" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G83" s="1" t="n">
         <v>24546</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O83" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q83" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R83" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G84" s="1" t="n">
         <v>25559</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O84" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q84" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="R84" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G85" s="1" t="n">
         <v>28701</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O85" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q85" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
+      </c>
+      <c r="R85" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G86" s="1" t="n">
         <v>30903</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J86" s="0" t="n">
         <v>544899804</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M86" s="4"/>
       <c r="N86" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O86" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q86" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
+      </c>
+      <c r="R86" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G87" s="1" t="n">
         <v>27289</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O87" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q87" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
+      </c>
+      <c r="R87" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G88" s="1" t="n">
         <v>29818</v>
@@ -4890,257 +5154,281 @@
         <v>901105</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O88" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q88" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
+      </c>
+      <c r="R88" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G89" s="1" t="n">
         <v>31904</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N89" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O89" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q89" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
+      </c>
+      <c r="R89" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G90" s="1" t="n">
         <v>25640</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O90" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q90" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
+      </c>
+      <c r="R90" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G91" s="1" t="n">
         <v>27870</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J91" s="0" t="n">
         <v>246178795</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O91" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q91" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
+      </c>
+      <c r="R91" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H92" s="0" t="n">
         <v>1455479</v>
       </c>
       <c r="O92" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q92" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
+      </c>
+      <c r="R92" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G93" s="1" t="n">
         <v>23471</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J93" s="0" t="n">
         <v>275184560</v>
       </c>
       <c r="N93" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O93" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q93" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
+      </c>
+      <c r="R93" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G94" s="1" t="n">
         <v>29204</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N94" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O94" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q94" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
+      </c>
+      <c r="R94" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G95" s="1" t="n">
         <v>25961</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O95" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q95" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
+      </c>
+      <c r="R95" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G96" s="1" t="n">
         <v>29575</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J96" s="0" t="n">
         <v>245522917</v>
@@ -5149,221 +5437,245 @@
         <v>505070355</v>
       </c>
       <c r="N96" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O96" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q96" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
+      </c>
+      <c r="R96" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G97" s="1" t="n">
         <v>32260</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N97" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O97" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q97" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
+      </c>
+      <c r="R97" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G98" s="1" t="n">
         <v>30231</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N98" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O98" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q98" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
+      </c>
+      <c r="R98" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G99" s="1" t="n">
         <v>29576</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J99" s="0" t="n">
         <v>246661271</v>
       </c>
       <c r="O99" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q99" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
+      </c>
+      <c r="R99" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G100" s="1" t="n">
         <v>28927</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N100" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O100" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q100" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
+      </c>
+      <c r="R100" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G101" s="1" t="n">
         <v>29123</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N101" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O101" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q101" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
+      </c>
+      <c r="R101" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O102" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q102" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
+      </c>
+      <c r="R102" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H103" s="0" t="n">
         <v>1455986</v>
       </c>
       <c r="O103" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q103" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
+      </c>
+      <c r="R103" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G104" s="1" t="n">
         <v>23231</v>
@@ -5372,96 +5684,108 @@
         <v>753872</v>
       </c>
       <c r="N104" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O104" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q104" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
+      </c>
+      <c r="R104" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O105" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q105" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
+      </c>
+      <c r="R105" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O106" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q106" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
+      </c>
+      <c r="R106" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B107" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O107" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="D107" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="E107" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="O107" s="0" t="s">
-        <v>409</v>
-      </c>
       <c r="Q107" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
+      </c>
+      <c r="R107" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G108" s="1" t="n">
         <v>28945</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J108" s="0" t="n">
         <v>278472070</v>
@@ -5470,138 +5794,150 @@
         <v>547283708</v>
       </c>
       <c r="N108" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O108" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q108" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R108" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G109" s="1" t="n">
         <v>26344</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N109" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O109" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q109" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R109" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G110" s="1" t="n">
         <v>24577</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J110" s="0" t="n">
         <v>201098710</v>
       </c>
       <c r="N110" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O110" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q110" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R110" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G111" s="1" t="n">
         <v>25570</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J111" s="0" t="n">
         <v>275215336</v>
       </c>
       <c r="N111" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O111" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q111" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R111" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G112" s="1" t="n">
         <v>28725</v>
       </c>
       <c r="H112" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J112" s="0" t="n">
         <v>278589183</v>
@@ -5610,106 +5946,115 @@
         <v>240602425</v>
       </c>
       <c r="O112" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q112" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R112" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G113" s="1" t="n">
         <v>24923</v>
       </c>
       <c r="H113" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J113" s="0" t="n">
         <v>200388739</v>
       </c>
       <c r="N113" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O113" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q113" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R113" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G114" s="1" t="n">
         <v>28084</v>
       </c>
       <c r="H114" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J114" s="0" t="n">
         <v>242823094</v>
       </c>
       <c r="N114" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O114" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q114" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R114" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G115" s="1" t="n">
         <v>27067</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J115" s="0" t="n">
         <v>544844479</v>
@@ -5718,74 +6063,80 @@
         <v>268786949</v>
       </c>
       <c r="N115" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O115" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q115" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R115" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G116" s="1" t="n">
         <v>25296</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J116" s="0" t="n">
         <v>276796431</v>
       </c>
       <c r="N116" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O116" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q116" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R116" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G117" s="1" t="n">
         <v>27070</v>
       </c>
       <c r="H117" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J117" s="0" t="n">
         <v>276256150</v>
@@ -5794,110 +6145,119 @@
         <v>558857890</v>
       </c>
       <c r="N117" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O117" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q117" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R117" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G118" s="1" t="n">
         <v>28010</v>
       </c>
       <c r="H118" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J118" s="0" t="n">
         <v>249874069</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M118" s="4"/>
       <c r="N118" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O118" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q118" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R118" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G119" s="1" t="n">
         <v>25527</v>
       </c>
       <c r="H119" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J119" s="0" t="n">
         <v>243889006</v>
       </c>
       <c r="N119" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O119" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q119" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R119" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G120" s="1" t="n">
         <v>27129</v>
       </c>
       <c r="H120" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J120" s="0" t="n">
         <v>548741867</v>
@@ -5906,65 +6266,71 @@
         <v>264177087</v>
       </c>
       <c r="N120" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O120" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q120" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R120" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G121" s="1" t="n">
         <v>23662</v>
       </c>
       <c r="H121" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N121" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O121" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q121" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R121" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G122" s="1" t="n">
         <v>23734</v>
       </c>
       <c r="H122" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J122" s="0" t="n">
         <v>542639182</v>
@@ -5973,68 +6339,74 @@
         <v>242352443</v>
       </c>
       <c r="O122" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q122" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R122" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G123" s="1" t="n">
         <v>24101</v>
       </c>
       <c r="H123" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J123" s="0" t="n">
         <v>240271343</v>
       </c>
       <c r="O123" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q123" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R123" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G124" s="1" t="n">
         <v>29400</v>
       </c>
       <c r="H124" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J124" s="0" t="n">
         <v>208750790</v>
@@ -6043,187 +6415,205 @@
         <v>276172117</v>
       </c>
       <c r="N124" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O124" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q124" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R124" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G125" s="1" t="n">
         <v>27985</v>
       </c>
       <c r="H125" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O125" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q125" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R125" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G126" s="1" t="n">
         <v>27886</v>
       </c>
       <c r="H126" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J126" s="0" t="n">
         <v>540338343</v>
       </c>
       <c r="O126" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q126" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R126" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G127" s="1" t="n">
         <v>28763</v>
       </c>
       <c r="H127" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N127" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O127" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q127" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R127" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G128" s="1" t="n">
         <v>29586</v>
       </c>
       <c r="H128" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J128" s="0" t="n">
         <v>248397445</v>
       </c>
       <c r="N128" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O128" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q128" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R128" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G129" s="1" t="n">
         <v>22920</v>
       </c>
       <c r="H129" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N129" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O129" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q129" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R129" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G130" s="1" t="n">
         <v>23812</v>
       </c>
       <c r="H130" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J130" s="0" t="n">
         <v>242316893</v>
@@ -6232,129 +6622,141 @@
         <v>261759104</v>
       </c>
       <c r="N130" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O130" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q130" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R130" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G131" s="1" t="n">
         <v>29336</v>
       </c>
       <c r="H131" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O131" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q131" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R131" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G132" s="1" t="n">
         <v>29134</v>
       </c>
       <c r="H132" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J132" s="0" t="n">
         <v>246041884</v>
       </c>
       <c r="N132" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O132" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q132" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R132" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G133" s="1" t="n">
         <v>28202</v>
       </c>
       <c r="H133" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N133" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O133" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q133" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R133" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G134" s="1" t="n">
         <v>24418</v>
       </c>
       <c r="H134" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J134" s="0" t="n">
         <v>200246901</v>
@@ -6363,101 +6765,110 @@
         <v>541086586</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M134" s="4"/>
       <c r="N134" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="O134" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q134" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R134" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G135" s="1" t="n">
         <v>24789</v>
       </c>
       <c r="H135" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N135" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O135" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q135" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R135" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G136" s="1" t="n">
         <v>25054</v>
       </c>
       <c r="H136" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N136" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O136" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q136" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R136" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G137" s="1" t="n">
         <v>23952</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J137" s="0" t="n">
         <v>277137902</v>
@@ -6466,132 +6877,144 @@
         <v>551087552</v>
       </c>
       <c r="O137" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q137" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R137" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G138" s="1" t="n">
         <v>24240</v>
       </c>
       <c r="H138" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J138" s="0" t="n">
         <v>249754451</v>
       </c>
       <c r="O138" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q138" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R138" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G139" s="1" t="n">
         <v>23487</v>
       </c>
       <c r="H139" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J139" s="0" t="n">
         <v>248218398</v>
       </c>
       <c r="N139" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O139" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q139" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R139" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G140" s="1" t="n">
         <v>25250</v>
       </c>
       <c r="H140" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J140" s="0" t="n">
         <v>543947167</v>
       </c>
       <c r="O140" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q140" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R140" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G141" s="1" t="n">
         <v>28804</v>
       </c>
       <c r="H141" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J141" s="0" t="n">
         <v>206530153</v>
@@ -6600,119 +7023,134 @@
         <v>544186721</v>
       </c>
       <c r="N141" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O141" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q141" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R141" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H142" s="0" t="n">
         <v>1455098</v>
       </c>
       <c r="O142" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q142" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R142" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B143" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="E143" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="O143" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="C143" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="D143" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="E143" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="O143" s="0" t="s">
-        <v>530</v>
-      </c>
       <c r="Q143" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R143" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O144" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q144" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R144" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O145" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q145" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R145" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G146" s="1" t="n">
         <v>24933</v>
@@ -6721,45 +7159,48 @@
         <v>754653</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J146" s="0" t="n">
         <v>246824075</v>
       </c>
       <c r="N146" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O146" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Q146" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="R146" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G147" s="1" t="n">
         <v>25561</v>
       </c>
       <c r="H147" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J147" s="0" t="n">
         <v>208736206</v>
@@ -6768,36 +7209,39 @@
         <v>241996410</v>
       </c>
       <c r="N147" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O147" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q147" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
+      </c>
+      <c r="R147" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G148" s="1" t="n">
         <v>30370</v>
       </c>
       <c r="H148" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="J148" s="0" t="n">
         <v>243751898</v>
@@ -6806,463 +7250,511 @@
         <v>26626328</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M148" s="4"/>
       <c r="N148" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O148" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q148" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
+      </c>
+      <c r="R148" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G149" s="1" t="n">
         <v>22645</v>
       </c>
       <c r="H149" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J149" s="0" t="n">
         <v>208907334</v>
       </c>
       <c r="N149" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O149" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q149" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="R149" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G150" s="1" t="n">
         <v>30107</v>
       </c>
       <c r="H150" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N150" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O150" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Q150" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="R150" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G151" s="1" t="n">
         <v>30376</v>
       </c>
       <c r="H151" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="N151" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="O151" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="N151" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="O151" s="0" t="s">
-        <v>559</v>
-      </c>
       <c r="Q151" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="R151" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O152" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Q152" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="R152" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B153" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="O153" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="D153" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="E153" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="O153" s="0" t="s">
-        <v>561</v>
-      </c>
       <c r="Q153" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="R153" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O154" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q154" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="R154" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G155" s="1" t="n">
         <v>26353</v>
       </c>
       <c r="H155" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N155" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O155" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q155" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="R155" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G156" s="1" t="n">
         <v>30247</v>
       </c>
       <c r="H156" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N156" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O156" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q156" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="R156" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G157" s="1" t="n">
         <v>25855</v>
       </c>
       <c r="H157" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N157" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O157" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q157" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="R157" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G158" s="1" t="n">
         <v>28225</v>
       </c>
       <c r="H158" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N158" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O158" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q158" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="R158" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G159" s="1" t="n">
         <v>28600</v>
       </c>
       <c r="H159" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N159" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O159" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q159" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="R159" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G160" s="1" t="n">
         <v>28900</v>
       </c>
       <c r="H160" s="0" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N160" s="0" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O160" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q160" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="R160" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G161" s="1" t="n">
         <v>24505</v>
       </c>
       <c r="H161" s="0" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N161" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O161" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q161" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="R161" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G162" s="1" t="n">
         <v>25131</v>
       </c>
       <c r="H162" s="0" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N162" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O162" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q162" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="R162" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G163" s="1" t="n">
         <v>27892</v>
       </c>
       <c r="H163" s="0" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N163" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O163" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q163" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="R163" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G164" s="1" t="n">
         <v>23674</v>
       </c>
       <c r="H164" s="0" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J164" s="0" t="n">
         <v>242820660</v>
@@ -7271,129 +7763,144 @@
         <v>274543216</v>
       </c>
       <c r="N164" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O164" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q164" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="R164" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G165" s="1" t="n">
         <v>25629</v>
       </c>
       <c r="H165" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N165" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O165" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q165" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="R165" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H166" s="0" t="n">
         <v>1453270</v>
       </c>
       <c r="O166" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q166" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="R166" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G167" s="1" t="n">
         <v>29738</v>
       </c>
       <c r="H167" s="0" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="N167" s="0" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O167" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q167" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="R167" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G168" s="1" t="n">
         <v>28276</v>
       </c>
       <c r="H168" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="N168" s="0" t="s">
         <v>600</v>
       </c>
-      <c r="N168" s="0" t="s">
-        <v>599</v>
-      </c>
       <c r="O168" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q168" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
+      </c>
+      <c r="R168" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
